--- a/integrador/api_smart/excel/umidade.xlsx
+++ b/integrador/api_smart/excel/umidade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\2DSTB-12\Disciplinas\PWBE\Integrador\Dados Integrador\Dados Integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43705577808\Desktop\PWBE\integrador\api_smart\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3226C970-FD94-4098-8713-FCA4089F9276}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D69917A-CD4E-4D38-9C0D-104CB78D357E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,10 +58,10 @@
     <t>%</t>
   </si>
   <si>
-    <t>True</t>
+    <t>ativo</t>
   </si>
   <si>
-    <t>False</t>
+    <t>inativo</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
